--- a/results/mp/deberta/corona/confidence/42/stop-words-desired-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-desired-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="198">
   <si>
     <t>anchor score</t>
   </si>
@@ -67,139 +67,139 @@
     <t>low</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>benefits</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>credit</t>
   </si>
   <si>
     <t>funny</t>
@@ -973,10 +973,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1105,7 +1105,7 @@
         <v>101</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1155,7 +1155,7 @@
         <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1205,7 +1205,7 @@
         <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K6">
         <v>0.9722222222222222</v>
@@ -1255,7 +1255,7 @@
         <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7">
         <v>0.9655172413793104</v>
@@ -1305,7 +1305,7 @@
         <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8">
         <v>0.9555555555555556</v>
@@ -1355,7 +1355,7 @@
         <v>49</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9">
         <v>0.9444444444444444</v>
@@ -1405,7 +1405,7 @@
         <v>398</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K10">
         <v>0.9354838709677419</v>
@@ -1455,7 +1455,7 @@
         <v>131</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K11">
         <v>0.9285714285714286</v>
@@ -1484,13 +1484,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1076923076923077</v>
+        <v>0.01362862010221465</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>224</v>
+        <v>406</v>
       </c>
       <c r="E12">
         <v>0.9399999999999999</v>
@@ -1502,10 +1502,10 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>116</v>
+        <v>1737</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K12">
         <v>0.9090909090909091</v>
@@ -1534,13 +1534,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01362862010221465</v>
+        <v>0.01202482544608223</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>406</v>
+        <v>560</v>
       </c>
       <c r="E13">
         <v>0.9399999999999999</v>
@@ -1552,10 +1552,10 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>1737</v>
+        <v>2547</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K13">
         <v>0.905982905982906</v>
@@ -1580,32 +1580,8 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.01202482544608223</v>
-      </c>
-      <c r="C14">
+      <c r="J14" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D14">
-        <v>560</v>
-      </c>
-      <c r="E14">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F14">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>2547</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="K14">
         <v>0.8823529411764706</v>
@@ -1631,7 +1607,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K15">
         <v>0.8807339449541285</v>
@@ -1657,7 +1633,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K16">
         <v>0.8723404255319149</v>
@@ -1683,7 +1659,7 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K17">
         <v>0.8666666666666667</v>
@@ -1709,7 +1685,7 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K18">
         <v>0.8666666666666667</v>
@@ -1735,7 +1711,7 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K19">
         <v>0.8666666666666667</v>
@@ -1761,7 +1737,7 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K20">
         <v>0.8666666666666667</v>
@@ -1787,7 +1763,7 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K21">
         <v>0.8661417322834646</v>
@@ -1813,7 +1789,7 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K22">
         <v>0.8636363636363636</v>
@@ -1839,7 +1815,7 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K23">
         <v>0.84</v>
@@ -1865,7 +1841,7 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K24">
         <v>0.825</v>
@@ -1891,7 +1867,7 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K25">
         <v>0.797979797979798</v>
@@ -1917,7 +1893,7 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K26">
         <v>0.7943262411347518</v>
@@ -1943,7 +1919,7 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K27">
         <v>0.7916666666666666</v>
@@ -1969,7 +1945,7 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K28">
         <v>0.7894736842105263</v>
@@ -1995,7 +1971,7 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K29">
         <v>0.7884615384615384</v>
@@ -2021,7 +1997,7 @@
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K30">
         <v>0.7777777777777778</v>
@@ -2047,7 +2023,7 @@
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K31">
         <v>0.7692307692307693</v>
@@ -2073,7 +2049,7 @@
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K32">
         <v>0.7647058823529411</v>
@@ -2099,7 +2075,7 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K33">
         <v>0.7555555555555555</v>
@@ -2125,7 +2101,7 @@
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K34">
         <v>0.746031746031746</v>
@@ -2151,16 +2127,16 @@
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K35">
-        <v>0.7324561403508771</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L35">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="M35">
-        <v>178</v>
+        <v>68</v>
       </c>
       <c r="N35">
         <v>0.9399999999999999</v>
@@ -2172,38 +2148,38 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>61</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K36">
-        <v>0.7111111111111111</v>
+        <v>0.698744769874477</v>
       </c>
       <c r="L36">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="M36">
-        <v>68</v>
+        <v>167</v>
       </c>
       <c r="N36">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>26</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K37">
         <v>0.6875</v>
@@ -2229,7 +2205,7 @@
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K38">
         <v>0.6829268292682927</v>
@@ -2255,7 +2231,7 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K39">
         <v>0.6818181818181818</v>
@@ -2281,7 +2257,7 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K40">
         <v>0.6785714285714286</v>
@@ -2307,7 +2283,7 @@
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K41">
         <v>0.6608391608391608</v>
@@ -2333,7 +2309,7 @@
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K42">
         <v>0.6543535620052771</v>
@@ -2359,7 +2335,7 @@
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K43">
         <v>0.6451612903225806</v>
@@ -2385,28 +2361,28 @@
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="K44">
-        <v>0.6441717791411042</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L44">
         <v>210</v>
       </c>
       <c r="M44">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="N44">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -5011,7 +4987,7 @@
     </row>
     <row r="145" spans="10:17">
       <c r="J145" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K145">
         <v>0.1802737140160453</v>
@@ -5115,7 +5091,7 @@
     </row>
     <row r="149" spans="10:17">
       <c r="J149" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K149">
         <v>0.1719765929778934</v>
